--- a/public/assets/upload/장치 등록 양식.xlsx
+++ b/public/assets/upload/장치 등록 양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정경수\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FC8BBF-A8ED-4EA2-B2A5-E2DB5EEE5B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35FC6B9-7AD3-46F4-9E51-F72EB3624CF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E250282-B138-44CA-AA3B-239459857021}"/>
+    <workbookView xWindow="2376" yWindow="1332" windowWidth="17280" windowHeight="10428" xr2:uid="{A0E916E8-83FD-4F2F-8E83-3CE8E5159AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>모델명</t>
+  </si>
+  <si>
+    <t>버전</t>
+  </si>
+  <si>
+    <t>맥주소</t>
+  </si>
+  <si>
+    <t>별칭</t>
+  </si>
+  <si>
+    <t>* 양식에 맞게 입력할 것!</t>
+  </si>
+  <si>
+    <t>* 맥주소 양식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>버전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 양식에 맞게 입력할 것!</t>
+    <t>11:22:33:44:55:66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,12 +117,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,39 +440,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432C6D26-1E5C-4573-B292-C3A076EBC880}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003D1735-3C34-41C9-BB15-7CB1D2739A4E}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="20.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="1" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/assets/upload/장치 등록 양식.xlsx
+++ b/public/assets/upload/장치 등록 양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정경수\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35FC6B9-7AD3-46F4-9E51-F72EB3624CF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAAD861-A9DD-400C-A308-37DE664B389F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="1332" windowWidth="17280" windowHeight="10428" xr2:uid="{A0E916E8-83FD-4F2F-8E83-3CE8E5159AEB}"/>
+    <workbookView xWindow="1260" yWindow="2304" windowWidth="21780" windowHeight="8964" xr2:uid="{A0E916E8-83FD-4F2F-8E83-3CE8E5159AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>모델명</t>
   </si>
@@ -42,20 +42,17 @@
     <t>버전</t>
   </si>
   <si>
+    <t>별칭</t>
+  </si>
+  <si>
+    <t>* 양식에 맞게 입력할 것!</t>
+  </si>
+  <si>
     <t>맥주소</t>
-  </si>
-  <si>
-    <t>별칭</t>
-  </si>
-  <si>
-    <t>* 양식에 맞게 입력할 것!</t>
-  </si>
-  <si>
-    <t>* 맥주소 양식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11:22:33:44:55:66</t>
+    <t>* 맥주소 양식 : 11:22:33:44:55:66</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,18 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003D1735-3C34-41C9-BB15-7CB1D2739A4E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="31.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,24 +458,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F2" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/assets/upload/장치 등록 양식.xlsx
+++ b/public/assets/upload/장치 등록 양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\정경수\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAAD861-A9DD-400C-A308-37DE664B389F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA91456-A18F-40BA-A266-85820BAFD86C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2304" windowWidth="21780" windowHeight="8964" xr2:uid="{A0E916E8-83FD-4F2F-8E83-3CE8E5159AEB}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="38700" windowHeight="15435" xr2:uid="{A0E916E8-83FD-4F2F-8E83-3CE8E5159AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>모델명</t>
-  </si>
-  <si>
-    <t>버전</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>별칭</t>
   </si>
@@ -438,46 +432,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003D1735-3C34-41C9-BB15-7CB1D2739A4E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="31.796875" customWidth="1"/>
+    <col min="1" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
